--- a/WI 24/SE 160A/MATLAB PROJECT 2/2024_SE160A_MATLAB_Wing_Student_Project (v2)/Wing_Analysis_Input.xlsx
+++ b/WI 24/SE 160A/MATLAB PROJECT 2/2024_SE160A_MATLAB_Wing_Student_Project (v2)/Wing_Analysis_Input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkosm\Desktop\SE160A_MATLAB_Wing_Analysis (2024)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levih\OneDrive\Documents\GitHub\UCSD\WI 24\SE 160A\MATLAB PROJECT 2\2024_SE160A_MATLAB_Wing_Student_Project (v2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8975263E-8D8E-4C2B-9291-80D8CEE82A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66557A1-FCAA-4414-B598-F6B1878E3D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15100" yWindow="-12270" windowWidth="19420" windowHeight="11620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="750" yWindow="2235" windowWidth="19140" windowHeight="17145" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -2304,8 +2304,8 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>51513</xdr:rowOff>
     </xdr:to>
@@ -2645,27 +2645,27 @@
   </sheetPr>
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.1796875" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" customWidth="1"/>
     <col min="2" max="2" width="2" customWidth="1"/>
-    <col min="3" max="3" width="2.1796875" customWidth="1"/>
-    <col min="4" max="4" width="3.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.08984375" customWidth="1"/>
-    <col min="6" max="6" width="34.54296875" customWidth="1"/>
-    <col min="7" max="12" width="12.90625" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" customWidth="1"/>
-    <col min="14" max="14" width="13.81640625" customWidth="1"/>
-    <col min="15" max="17" width="1.81640625" customWidth="1"/>
-    <col min="19" max="1026" width="8.6328125" customWidth="1"/>
+    <col min="3" max="3" width="2.140625" customWidth="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" customWidth="1"/>
+    <col min="7" max="12" width="12.85546875" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" customWidth="1"/>
+    <col min="15" max="17" width="1.85546875" customWidth="1"/>
+    <col min="19" max="1026" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.5" customHeight="1"/>
-    <row r="2" spans="1:16" ht="14.5" customHeight="1">
+    <row r="1" spans="1:16" ht="14.45" customHeight="1"/>
+    <row r="2" spans="1:16" ht="14.45" customHeight="1">
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="39"/>
@@ -2682,7 +2682,7 @@
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
     </row>
-    <row r="3" spans="1:16" ht="14.5" customHeight="1">
+    <row r="3" spans="1:16" ht="14.45" customHeight="1">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" ht="20.5" customHeight="1">
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="20.45" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="14.5" customHeight="1">
+    <row r="5" spans="1:16" ht="14.45" customHeight="1">
       <c r="B5" s="6"/>
       <c r="D5" s="5" t="s">
         <v>74</v>
@@ -2714,13 +2714,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="14.5" customHeight="1" thickBot="1">
+    <row r="6" spans="1:16" ht="14.45" customHeight="1" thickBot="1">
       <c r="B6" s="6"/>
       <c r="D6"/>
       <c r="E6" s="7"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:16" ht="14.5" customHeight="1" thickBot="1">
+    <row r="7" spans="1:16" ht="14.45" customHeight="1" thickBot="1">
       <c r="B7" s="6" t="s">
         <v>0</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="14.5" customHeight="1">
+    <row r="8" spans="1:16" ht="14.45" customHeight="1">
       <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
@@ -2750,14 +2750,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" thickBot="1">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1">
       <c r="B9" s="6"/>
       <c r="E9" s="20" t="s">
         <v>83</v>
       </c>
       <c r="P9" s="6"/>
     </row>
-    <row r="10" spans="1:16" ht="15" thickBot="1">
+    <row r="10" spans="1:16" ht="15.75" thickBot="1">
       <c r="B10" s="6"/>
       <c r="E10" s="13" t="s">
         <v>3</v>
@@ -2789,7 +2789,7 @@
       </c>
       <c r="P11" s="6"/>
     </row>
-    <row r="12" spans="1:16" ht="15" thickBot="1">
+    <row r="12" spans="1:16" ht="15.75" thickBot="1">
       <c r="B12" s="6"/>
       <c r="E12" s="63" t="s">
         <v>0</v>
@@ -2805,11 +2805,11 @@
       </c>
       <c r="P12" s="6"/>
     </row>
-    <row r="13" spans="1:16" ht="14.5" customHeight="1">
+    <row r="13" spans="1:16" ht="14.45" customHeight="1">
       <c r="B13" s="6"/>
       <c r="P13" s="6"/>
     </row>
-    <row r="14" spans="1:16" ht="14.5" customHeight="1" thickBot="1">
+    <row r="14" spans="1:16" ht="14.45" customHeight="1" thickBot="1">
       <c r="B14" s="6"/>
       <c r="E14" s="20" t="s">
         <v>86</v>
@@ -2819,7 +2819,7 @@
       <c r="N14" s="55"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="1:16" ht="14.5" customHeight="1" thickBot="1">
+    <row r="15" spans="1:16" ht="14.45" customHeight="1" thickBot="1">
       <c r="B15" s="6"/>
       <c r="E15" s="13" t="s">
         <v>3</v>
@@ -2842,7 +2842,7 @@
       <c r="N15" s="55"/>
       <c r="P15" s="6"/>
     </row>
-    <row r="16" spans="1:16" ht="14.5" customHeight="1">
+    <row r="16" spans="1:16" ht="14.45" customHeight="1">
       <c r="B16" s="6"/>
       <c r="E16" s="66" t="s">
         <v>19</v>
@@ -2851,7 +2851,7 @@
         <v>87</v>
       </c>
       <c r="G16" s="29">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="H16" s="59" t="s">
         <v>18</v>
@@ -2859,7 +2859,7 @@
       <c r="N16" s="55"/>
       <c r="P16" s="6"/>
     </row>
-    <row r="17" spans="2:16" ht="14.5" customHeight="1">
+    <row r="17" spans="2:16" ht="14.45" customHeight="1">
       <c r="B17" s="6"/>
       <c r="E17" s="26" t="s">
         <v>89</v>
@@ -2868,7 +2868,7 @@
         <v>88</v>
       </c>
       <c r="G17" s="30">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H17" s="103" t="s">
         <v>18</v>
@@ -2878,7 +2878,7 @@
       <c r="N17" s="55"/>
       <c r="P17" s="6"/>
     </row>
-    <row r="18" spans="2:16" ht="14.5" customHeight="1">
+    <row r="18" spans="2:16" ht="14.45" customHeight="1">
       <c r="B18" s="6"/>
       <c r="E18" s="26" t="s">
         <v>90</v>
@@ -2897,7 +2897,7 @@
       <c r="N18" s="55"/>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="2:16" ht="14.5" customHeight="1" thickBot="1">
+    <row r="19" spans="2:16" ht="14.45" customHeight="1" thickBot="1">
       <c r="B19" s="6"/>
       <c r="E19" s="63" t="s">
         <v>124</v>
@@ -2916,14 +2916,14 @@
       <c r="N19" s="55"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="2:16" ht="14.5" customHeight="1">
+    <row r="20" spans="2:16" ht="14.45" customHeight="1">
       <c r="B20" s="6"/>
       <c r="L20" s="55"/>
       <c r="M20" s="55"/>
       <c r="N20" s="55"/>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="2:16" ht="14.5" customHeight="1" thickBot="1">
+    <row r="21" spans="2:16" ht="14.45" customHeight="1" thickBot="1">
       <c r="B21" s="6"/>
       <c r="E21" s="20" t="s">
         <v>111</v>
@@ -2933,7 +2933,7 @@
       <c r="N21" s="55"/>
       <c r="P21" s="6"/>
     </row>
-    <row r="22" spans="2:16" ht="14.5" customHeight="1" thickBot="1">
+    <row r="22" spans="2:16" ht="14.45" customHeight="1" thickBot="1">
       <c r="B22" s="6"/>
       <c r="E22" s="32" t="s">
         <v>3</v>
@@ -2952,7 +2952,7 @@
       <c r="N22" s="55"/>
       <c r="P22" s="6"/>
     </row>
-    <row r="23" spans="2:16" ht="14.5" customHeight="1" thickBot="1">
+    <row r="23" spans="2:16" ht="14.45" customHeight="1" thickBot="1">
       <c r="B23" s="6"/>
       <c r="E23" s="88" t="s">
         <v>79</v>
@@ -2971,7 +2971,7 @@
       <c r="N23" s="55"/>
       <c r="P23" s="6"/>
     </row>
-    <row r="24" spans="2:16" ht="14.5" customHeight="1">
+    <row r="24" spans="2:16" ht="14.45" customHeight="1">
       <c r="B24" s="6"/>
       <c r="D24" s="128" t="s">
         <v>113</v>
@@ -2993,7 +2993,7 @@
       <c r="N24" s="55"/>
       <c r="P24" s="6"/>
     </row>
-    <row r="25" spans="2:16" ht="14.5" customHeight="1">
+    <row r="25" spans="2:16" ht="14.45" customHeight="1">
       <c r="B25" s="6"/>
       <c r="D25" s="129"/>
       <c r="E25" s="26" t="s">
@@ -3013,7 +3013,7 @@
       <c r="N25" s="55"/>
       <c r="P25" s="6"/>
     </row>
-    <row r="26" spans="2:16" ht="14.5" customHeight="1">
+    <row r="26" spans="2:16" ht="14.45" customHeight="1">
       <c r="B26" s="6"/>
       <c r="D26" s="129"/>
       <c r="E26" s="22" t="s">
@@ -3033,7 +3033,7 @@
       <c r="N26" s="55"/>
       <c r="P26" s="6"/>
     </row>
-    <row r="27" spans="2:16" ht="14.5" customHeight="1" thickBot="1">
+    <row r="27" spans="2:16" ht="14.45" customHeight="1" thickBot="1">
       <c r="B27" s="6"/>
       <c r="D27" s="130"/>
       <c r="E27" s="25" t="s">
@@ -3051,7 +3051,7 @@
       <c r="N27" s="55"/>
       <c r="P27" s="6"/>
     </row>
-    <row r="28" spans="2:16" ht="14.5" customHeight="1">
+    <row r="28" spans="2:16" ht="14.45" customHeight="1">
       <c r="B28" s="6"/>
       <c r="E28" s="96"/>
       <c r="G28" s="97"/>
@@ -3061,14 +3061,14 @@
       <c r="N28" s="55"/>
       <c r="P28" s="6"/>
     </row>
-    <row r="29" spans="2:16" ht="14.5" customHeight="1" thickBot="1">
+    <row r="29" spans="2:16" ht="14.45" customHeight="1" thickBot="1">
       <c r="B29" s="6"/>
       <c r="E29" s="20" t="s">
         <v>93</v>
       </c>
       <c r="P29" s="6"/>
     </row>
-    <row r="30" spans="2:16" ht="15" thickBot="1">
+    <row r="30" spans="2:16" ht="15.75" thickBot="1">
       <c r="B30" s="6"/>
       <c r="E30" s="32" t="s">
         <v>3</v>
@@ -3105,13 +3105,13 @@
         <v>0</v>
       </c>
       <c r="H31" s="98">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I31" s="78">
         <v>100</v>
       </c>
       <c r="J31" s="99">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K31" s="79" t="s">
         <v>91</v>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="P31" s="6"/>
     </row>
-    <row r="32" spans="2:16" ht="17.5">
+    <row r="32" spans="2:16" ht="18">
       <c r="B32" s="6"/>
       <c r="E32" s="26" t="s">
         <v>99</v>
@@ -3130,23 +3130,23 @@
         <v>100</v>
       </c>
       <c r="G32" s="81">
-        <v>0.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H32" s="81">
-        <v>3.6</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I32" s="81">
-        <v>0.6</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="J32" s="81">
-        <v>3.6</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="K32" s="82" t="s">
         <v>101</v>
       </c>
       <c r="P32" s="6"/>
     </row>
-    <row r="33" spans="2:16" ht="17.5">
+    <row r="33" spans="2:16" ht="18">
       <c r="B33" s="6"/>
       <c r="E33" s="83" t="s">
         <v>102</v>
@@ -3155,23 +3155,23 @@
         <v>103</v>
       </c>
       <c r="G33" s="81">
-        <v>5.2100000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="H33" s="81">
-        <v>1.04E-2</v>
+        <v>0</v>
       </c>
       <c r="I33" s="81">
-        <v>5.2100000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="J33" s="81">
-        <v>1.04E-2</v>
+        <v>0</v>
       </c>
       <c r="K33" s="82" t="s">
         <v>104</v>
       </c>
       <c r="P33" s="6"/>
     </row>
-    <row r="34" spans="2:16" ht="17.5">
+    <row r="34" spans="2:16" ht="18">
       <c r="B34" s="6"/>
       <c r="E34" s="83" t="s">
         <v>105</v>
@@ -3180,23 +3180,23 @@
         <v>106</v>
       </c>
       <c r="G34" s="81">
-        <v>5.2100000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="H34" s="81">
-        <v>4.1700000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="I34" s="81">
-        <v>5.2100000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="J34" s="81">
-        <v>4.1700000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="K34" s="82" t="s">
         <v>104</v>
       </c>
       <c r="P34" s="6"/>
     </row>
-    <row r="35" spans="2:16" ht="18" thickBot="1">
+    <row r="35" spans="2:16" ht="18.75" thickBot="1">
       <c r="B35" s="6"/>
       <c r="E35" s="83" t="s">
         <v>107</v>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="P35" s="6"/>
     </row>
-    <row r="36" spans="2:16" ht="14.5" customHeight="1">
+    <row r="36" spans="2:16" ht="14.45" customHeight="1">
       <c r="B36" s="6"/>
       <c r="D36" s="128" t="s">
         <v>114</v>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="P37" s="6"/>
     </row>
-    <row r="38" spans="2:16" ht="16.5">
+    <row r="38" spans="2:16" ht="18">
       <c r="B38" s="6"/>
       <c r="D38" s="129"/>
       <c r="E38" s="22" t="s">
@@ -3301,7 +3301,7 @@
       </c>
       <c r="P38" s="6"/>
     </row>
-    <row r="39" spans="2:16" ht="16.5">
+    <row r="39" spans="2:16" ht="18">
       <c r="B39" s="6"/>
       <c r="D39" s="129"/>
       <c r="E39" s="22" t="s">
@@ -3327,7 +3327,7 @@
       </c>
       <c r="P39" s="6"/>
     </row>
-    <row r="40" spans="2:16" ht="16.5">
+    <row r="40" spans="2:16" ht="18">
       <c r="B40" s="6"/>
       <c r="D40" s="129"/>
       <c r="E40" s="22" t="s">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="P40" s="6"/>
     </row>
-    <row r="41" spans="2:16" ht="17" thickBot="1">
+    <row r="41" spans="2:16" ht="18.75" thickBot="1">
       <c r="B41" s="6"/>
       <c r="D41" s="130"/>
       <c r="E41" s="25" t="s">
@@ -3379,7 +3379,7 @@
       </c>
       <c r="P41" s="6"/>
     </row>
-    <row r="42" spans="2:16" ht="14.5" customHeight="1" thickBot="1">
+    <row r="42" spans="2:16" ht="14.45" customHeight="1" thickBot="1">
       <c r="B42" s="6"/>
       <c r="D42" s="100"/>
       <c r="E42" s="101" t="s">
@@ -3390,21 +3390,21 @@
       <c r="N42" s="55"/>
       <c r="P42" s="6"/>
     </row>
-    <row r="43" spans="2:16" ht="14.5" customHeight="1">
+    <row r="43" spans="2:16" ht="14.45" customHeight="1">
       <c r="B43" s="6"/>
       <c r="L43" s="55"/>
       <c r="M43" s="55"/>
       <c r="N43" s="55"/>
       <c r="P43" s="6"/>
     </row>
-    <row r="44" spans="2:16" ht="15" thickBot="1">
+    <row r="44" spans="2:16" ht="15.75" thickBot="1">
       <c r="B44" s="6"/>
       <c r="E44" s="20" t="s">
         <v>78</v>
       </c>
       <c r="P44" s="6"/>
     </row>
-    <row r="45" spans="2:16" ht="15" thickBot="1">
+    <row r="45" spans="2:16" ht="15.75" thickBot="1">
       <c r="B45" s="6"/>
       <c r="E45" s="67" t="s">
         <v>3</v>
@@ -3420,7 +3420,7 @@
       </c>
       <c r="P45" s="6"/>
     </row>
-    <row r="46" spans="2:16" ht="17">
+    <row r="46" spans="2:16" ht="16.5">
       <c r="B46" s="6"/>
       <c r="E46" s="56" t="s">
         <v>29</v>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="P46" s="6"/>
     </row>
-    <row r="47" spans="2:16" ht="17.5" thickBot="1">
+    <row r="47" spans="2:16" ht="17.25" thickBot="1">
       <c r="B47" s="6"/>
       <c r="E47" s="36" t="s">
         <v>30</v>
@@ -3456,14 +3456,14 @@
       <c r="B48" s="6"/>
       <c r="P48" s="6"/>
     </row>
-    <row r="49" spans="2:16" ht="15" thickBot="1">
+    <row r="49" spans="2:16" ht="15.75" thickBot="1">
       <c r="B49" s="6"/>
       <c r="E49" s="20" t="s">
         <v>115</v>
       </c>
       <c r="P49" s="6"/>
     </row>
-    <row r="50" spans="2:16" ht="15" thickBot="1">
+    <row r="50" spans="2:16" ht="15.75" thickBot="1">
       <c r="B50" s="6"/>
       <c r="E50" s="32" t="s">
         <v>3</v>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="P51" s="6"/>
     </row>
-    <row r="52" spans="2:16" ht="16.5">
+    <row r="52" spans="2:16" ht="18">
       <c r="B52" s="6"/>
       <c r="D52" s="1" t="s">
         <v>0</v>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="P52" s="6"/>
     </row>
-    <row r="53" spans="2:16" ht="16.5">
+    <row r="53" spans="2:16" ht="18">
       <c r="B53" s="6"/>
       <c r="D53" s="1" t="s">
         <v>0</v>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="P54" s="6"/>
     </row>
-    <row r="55" spans="2:16" ht="16.5">
+    <row r="55" spans="2:16" ht="18">
       <c r="B55" s="6"/>
       <c r="D55" s="1" t="s">
         <v>0</v>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="P55" s="6"/>
     </row>
-    <row r="56" spans="2:16" ht="16.5">
+    <row r="56" spans="2:16" ht="18">
       <c r="B56" s="6"/>
       <c r="D56" s="1" t="s">
         <v>0</v>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="P56" s="6"/>
     </row>
-    <row r="57" spans="2:16" ht="16.5">
+    <row r="57" spans="2:16" ht="18">
       <c r="B57" s="6"/>
       <c r="D57" s="1" t="s">
         <v>0</v>
@@ -3612,7 +3612,7 @@
       </c>
       <c r="P57" s="6"/>
     </row>
-    <row r="58" spans="2:16" ht="16.5">
+    <row r="58" spans="2:16" ht="18">
       <c r="B58" s="6"/>
       <c r="D58" s="1" t="s">
         <v>0</v>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="P58" s="6"/>
     </row>
-    <row r="59" spans="2:16" ht="17" thickBot="1">
+    <row r="59" spans="2:16" ht="18.75" thickBot="1">
       <c r="B59" s="6"/>
       <c r="D59" s="1" t="s">
         <v>0</v>
@@ -3650,14 +3650,14 @@
       </c>
       <c r="P59" s="6"/>
     </row>
-    <row r="60" spans="2:16" ht="14.5" customHeight="1">
+    <row r="60" spans="2:16" ht="14.45" customHeight="1">
       <c r="B60" s="6"/>
       <c r="L60" s="55"/>
       <c r="M60" s="55"/>
       <c r="N60" s="55"/>
       <c r="P60" s="6"/>
     </row>
-    <row r="61" spans="2:16" ht="14.5" customHeight="1">
+    <row r="61" spans="2:16" ht="14.45" customHeight="1">
       <c r="B61" s="6"/>
       <c r="J61" s="127" t="s">
         <v>118</v>
@@ -3719,22 +3719,22 @@
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" customWidth="1"/>
-    <col min="5" max="6" width="13.1796875" customWidth="1"/>
-    <col min="9" max="9" width="4.81640625" customWidth="1"/>
-    <col min="10" max="10" width="9.1796875" customWidth="1"/>
-    <col min="11" max="11" width="34.453125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="6" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="34.42578125" customWidth="1"/>
     <col min="12" max="16" width="9" customWidth="1"/>
-    <col min="17" max="17" width="13.08984375" customWidth="1"/>
-    <col min="18" max="18" width="3.81640625" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" customWidth="1"/>
+    <col min="18" max="18" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="15" thickBot="1"/>
-    <row r="3" spans="2:20" ht="15" thickBot="1">
+    <row r="2" spans="2:20" ht="15.75" thickBot="1"/>
+    <row r="3" spans="2:20" ht="15.75" thickBot="1">
       <c r="B3" s="131" t="s">
         <v>65</v>
       </c>
@@ -3756,7 +3756,7 @@
       </c>
       <c r="T3" s="133"/>
     </row>
-    <row r="4" spans="2:20" ht="32.5" customHeight="1" thickBot="1">
+    <row r="4" spans="2:20" ht="32.450000000000003" customHeight="1" thickBot="1">
       <c r="B4" s="42" t="s">
         <v>55</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:20" ht="16.5" thickBot="1">
+    <row r="5" spans="2:20" ht="18.75" thickBot="1">
       <c r="B5" s="46" t="s">
         <v>72</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="6" spans="2:20" ht="17" thickBot="1">
+    <row r="6" spans="2:20" ht="18.75" thickBot="1">
       <c r="B6" s="44" t="s">
         <v>31</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:20" ht="17" thickBot="1">
+    <row r="7" spans="2:20" ht="18.75" thickBot="1">
       <c r="B7" s="46" t="s">
         <v>8</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="15" thickBot="1">
+    <row r="8" spans="2:20" ht="15.75" thickBot="1">
       <c r="B8" s="46" t="s">
         <v>9</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>-3.16</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="17.5" thickBot="1">
+    <row r="9" spans="2:20" ht="18.75" thickBot="1">
       <c r="B9" s="44" t="s">
         <v>58</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="17.5" thickBot="1">
+    <row r="10" spans="2:20" ht="18.75" thickBot="1">
       <c r="B10" s="44" t="s">
         <v>60</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>2.0830000000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="17.5" thickBot="1">
+    <row r="11" spans="2:20" ht="18.75" thickBot="1">
       <c r="B11" s="44" t="s">
         <v>61</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:20" ht="17.5" thickBot="1">
+    <row r="12" spans="2:20" ht="18.75" thickBot="1">
       <c r="B12" s="44" t="s">
         <v>62</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="17.5" thickBot="1">
+    <row r="13" spans="2:20" ht="18.75" thickBot="1">
       <c r="B13" s="44" t="s">
         <v>63</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="17.5" thickBot="1">
+    <row r="14" spans="2:20" ht="17.25" thickBot="1">
       <c r="B14" s="44" t="s">
         <v>64</v>
       </c>

--- a/WI 24/SE 160A/MATLAB PROJECT 2/2024_SE160A_MATLAB_Wing_Student_Project (v2)/Wing_Analysis_Input.xlsx
+++ b/WI 24/SE 160A/MATLAB PROJECT 2/2024_SE160A_MATLAB_Wing_Student_Project (v2)/Wing_Analysis_Input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levih\OneDrive\Documents\GitHub\UCSD\WI 24\SE 160A\MATLAB PROJECT 2\2024_SE160A_MATLAB_Wing_Student_Project (v2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkosm\Desktop\SE160A_MATLAB_Wing_Analysis (2024)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66557A1-FCAA-4414-B598-F6B1878E3D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2336E6DC-6A47-4639-9019-6AA35F070211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="2235" windowWidth="19140" windowHeight="17145" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15100" yWindow="-12270" windowWidth="19420" windowHeight="11620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -2304,8 +2304,8 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>3175</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>51513</xdr:rowOff>
     </xdr:to>
@@ -2645,27 +2645,27 @@
   </sheetPr>
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="2.140625" customWidth="1"/>
+    <col min="1" max="1" width="2.1796875" customWidth="1"/>
     <col min="2" max="2" width="2" customWidth="1"/>
-    <col min="3" max="3" width="2.140625" customWidth="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" customWidth="1"/>
-    <col min="7" max="12" width="12.85546875" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" customWidth="1"/>
-    <col min="15" max="17" width="1.85546875" customWidth="1"/>
-    <col min="19" max="1026" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="2.1796875" customWidth="1"/>
+    <col min="4" max="4" width="3.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" customWidth="1"/>
+    <col min="6" max="6" width="34.54296875" customWidth="1"/>
+    <col min="7" max="12" width="12.90625" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" customWidth="1"/>
+    <col min="14" max="14" width="13.81640625" customWidth="1"/>
+    <col min="15" max="17" width="1.81640625" customWidth="1"/>
+    <col min="19" max="1026" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.45" customHeight="1"/>
-    <row r="2" spans="1:16" ht="14.45" customHeight="1">
+    <row r="1" spans="1:16" ht="14.5" customHeight="1"/>
+    <row r="2" spans="1:16" ht="14.5" customHeight="1">
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="39"/>
@@ -2682,7 +2682,7 @@
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
     </row>
-    <row r="3" spans="1:16" ht="14.45" customHeight="1">
+    <row r="3" spans="1:16" ht="14.5" customHeight="1">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" ht="20.45" customHeight="1">
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="20.5" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="14.45" customHeight="1">
+    <row r="5" spans="1:16" ht="14.5" customHeight="1">
       <c r="B5" s="6"/>
       <c r="D5" s="5" t="s">
         <v>74</v>
@@ -2714,13 +2714,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="14.45" customHeight="1" thickBot="1">
+    <row r="6" spans="1:16" ht="14.5" customHeight="1" thickBot="1">
       <c r="B6" s="6"/>
       <c r="D6"/>
       <c r="E6" s="7"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:16" ht="14.45" customHeight="1" thickBot="1">
+    <row r="7" spans="1:16" ht="14.5" customHeight="1" thickBot="1">
       <c r="B7" s="6" t="s">
         <v>0</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="14.45" customHeight="1">
+    <row r="8" spans="1:16" ht="14.5" customHeight="1">
       <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
@@ -2750,14 +2750,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1">
+    <row r="9" spans="1:16" ht="15" thickBot="1">
       <c r="B9" s="6"/>
       <c r="E9" s="20" t="s">
         <v>83</v>
       </c>
       <c r="P9" s="6"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1">
+    <row r="10" spans="1:16" ht="15" thickBot="1">
       <c r="B10" s="6"/>
       <c r="E10" s="13" t="s">
         <v>3</v>
@@ -2789,7 +2789,7 @@
       </c>
       <c r="P11" s="6"/>
     </row>
-    <row r="12" spans="1:16" ht="15.75" thickBot="1">
+    <row r="12" spans="1:16" ht="15" thickBot="1">
       <c r="B12" s="6"/>
       <c r="E12" s="63" t="s">
         <v>0</v>
@@ -2805,11 +2805,11 @@
       </c>
       <c r="P12" s="6"/>
     </row>
-    <row r="13" spans="1:16" ht="14.45" customHeight="1">
+    <row r="13" spans="1:16" ht="14.5" customHeight="1">
       <c r="B13" s="6"/>
       <c r="P13" s="6"/>
     </row>
-    <row r="14" spans="1:16" ht="14.45" customHeight="1" thickBot="1">
+    <row r="14" spans="1:16" ht="14.5" customHeight="1" thickBot="1">
       <c r="B14" s="6"/>
       <c r="E14" s="20" t="s">
         <v>86</v>
@@ -2819,7 +2819,7 @@
       <c r="N14" s="55"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="1:16" ht="14.45" customHeight="1" thickBot="1">
+    <row r="15" spans="1:16" ht="14.5" customHeight="1" thickBot="1">
       <c r="B15" s="6"/>
       <c r="E15" s="13" t="s">
         <v>3</v>
@@ -2842,7 +2842,7 @@
       <c r="N15" s="55"/>
       <c r="P15" s="6"/>
     </row>
-    <row r="16" spans="1:16" ht="14.45" customHeight="1">
+    <row r="16" spans="1:16" ht="14.5" customHeight="1">
       <c r="B16" s="6"/>
       <c r="E16" s="66" t="s">
         <v>19</v>
@@ -2851,7 +2851,7 @@
         <v>87</v>
       </c>
       <c r="G16" s="29">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="H16" s="59" t="s">
         <v>18</v>
@@ -2859,7 +2859,7 @@
       <c r="N16" s="55"/>
       <c r="P16" s="6"/>
     </row>
-    <row r="17" spans="2:16" ht="14.45" customHeight="1">
+    <row r="17" spans="2:16" ht="14.5" customHeight="1">
       <c r="B17" s="6"/>
       <c r="E17" s="26" t="s">
         <v>89</v>
@@ -2868,7 +2868,7 @@
         <v>88</v>
       </c>
       <c r="G17" s="30">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="H17" s="103" t="s">
         <v>18</v>
@@ -2878,7 +2878,7 @@
       <c r="N17" s="55"/>
       <c r="P17" s="6"/>
     </row>
-    <row r="18" spans="2:16" ht="14.45" customHeight="1">
+    <row r="18" spans="2:16" ht="14.5" customHeight="1">
       <c r="B18" s="6"/>
       <c r="E18" s="26" t="s">
         <v>90</v>
@@ -2897,7 +2897,7 @@
       <c r="N18" s="55"/>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="2:16" ht="14.45" customHeight="1" thickBot="1">
+    <row r="19" spans="2:16" ht="14.5" customHeight="1" thickBot="1">
       <c r="B19" s="6"/>
       <c r="E19" s="63" t="s">
         <v>124</v>
@@ -2916,14 +2916,14 @@
       <c r="N19" s="55"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="2:16" ht="14.45" customHeight="1">
+    <row r="20" spans="2:16" ht="14.5" customHeight="1">
       <c r="B20" s="6"/>
       <c r="L20" s="55"/>
       <c r="M20" s="55"/>
       <c r="N20" s="55"/>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="2:16" ht="14.45" customHeight="1" thickBot="1">
+    <row r="21" spans="2:16" ht="14.5" customHeight="1" thickBot="1">
       <c r="B21" s="6"/>
       <c r="E21" s="20" t="s">
         <v>111</v>
@@ -2933,7 +2933,7 @@
       <c r="N21" s="55"/>
       <c r="P21" s="6"/>
     </row>
-    <row r="22" spans="2:16" ht="14.45" customHeight="1" thickBot="1">
+    <row r="22" spans="2:16" ht="14.5" customHeight="1" thickBot="1">
       <c r="B22" s="6"/>
       <c r="E22" s="32" t="s">
         <v>3</v>
@@ -2952,7 +2952,7 @@
       <c r="N22" s="55"/>
       <c r="P22" s="6"/>
     </row>
-    <row r="23" spans="2:16" ht="14.45" customHeight="1" thickBot="1">
+    <row r="23" spans="2:16" ht="14.5" customHeight="1" thickBot="1">
       <c r="B23" s="6"/>
       <c r="E23" s="88" t="s">
         <v>79</v>
@@ -2961,7 +2961,7 @@
         <v>110</v>
       </c>
       <c r="G23" s="77">
-        <v>4.4999999999999998E-2</v>
+        <v>0.04</v>
       </c>
       <c r="H23" s="90" t="s">
         <v>18</v>
@@ -2971,7 +2971,7 @@
       <c r="N23" s="55"/>
       <c r="P23" s="6"/>
     </row>
-    <row r="24" spans="2:16" ht="14.45" customHeight="1">
+    <row r="24" spans="2:16" ht="14.5" customHeight="1">
       <c r="B24" s="6"/>
       <c r="D24" s="128" t="s">
         <v>113</v>
@@ -2993,7 +2993,7 @@
       <c r="N24" s="55"/>
       <c r="P24" s="6"/>
     </row>
-    <row r="25" spans="2:16" ht="14.45" customHeight="1">
+    <row r="25" spans="2:16" ht="14.5" customHeight="1">
       <c r="B25" s="6"/>
       <c r="D25" s="129"/>
       <c r="E25" s="26" t="s">
@@ -3013,7 +3013,7 @@
       <c r="N25" s="55"/>
       <c r="P25" s="6"/>
     </row>
-    <row r="26" spans="2:16" ht="14.45" customHeight="1">
+    <row r="26" spans="2:16" ht="14.5" customHeight="1">
       <c r="B26" s="6"/>
       <c r="D26" s="129"/>
       <c r="E26" s="22" t="s">
@@ -3033,7 +3033,7 @@
       <c r="N26" s="55"/>
       <c r="P26" s="6"/>
     </row>
-    <row r="27" spans="2:16" ht="14.45" customHeight="1" thickBot="1">
+    <row r="27" spans="2:16" ht="14.5" customHeight="1" thickBot="1">
       <c r="B27" s="6"/>
       <c r="D27" s="130"/>
       <c r="E27" s="25" t="s">
@@ -3051,7 +3051,7 @@
       <c r="N27" s="55"/>
       <c r="P27" s="6"/>
     </row>
-    <row r="28" spans="2:16" ht="14.45" customHeight="1">
+    <row r="28" spans="2:16" ht="14.5" customHeight="1">
       <c r="B28" s="6"/>
       <c r="E28" s="96"/>
       <c r="G28" s="97"/>
@@ -3061,14 +3061,14 @@
       <c r="N28" s="55"/>
       <c r="P28" s="6"/>
     </row>
-    <row r="29" spans="2:16" ht="14.45" customHeight="1" thickBot="1">
+    <row r="29" spans="2:16" ht="14.5" customHeight="1" thickBot="1">
       <c r="B29" s="6"/>
       <c r="E29" s="20" t="s">
         <v>93</v>
       </c>
       <c r="P29" s="6"/>
     </row>
-    <row r="30" spans="2:16" ht="15.75" thickBot="1">
+    <row r="30" spans="2:16" ht="15" thickBot="1">
       <c r="B30" s="6"/>
       <c r="E30" s="32" t="s">
         <v>3</v>
@@ -3105,13 +3105,13 @@
         <v>0</v>
       </c>
       <c r="H31" s="98">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I31" s="78">
         <v>100</v>
       </c>
       <c r="J31" s="99">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K31" s="79" t="s">
         <v>91</v>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="P31" s="6"/>
     </row>
-    <row r="32" spans="2:16" ht="18">
+    <row r="32" spans="2:16" ht="17.5">
       <c r="B32" s="6"/>
       <c r="E32" s="26" t="s">
         <v>99</v>
@@ -3130,23 +3130,23 @@
         <v>100</v>
       </c>
       <c r="G32" s="81">
-        <v>5.0999999999999996</v>
+        <v>0.6</v>
       </c>
       <c r="H32" s="81">
-        <v>5.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="I32" s="81">
-        <v>5.0999999999999996</v>
+        <v>1.5</v>
       </c>
       <c r="J32" s="81">
-        <v>5.0999999999999996</v>
+        <v>3.5</v>
       </c>
       <c r="K32" s="82" t="s">
         <v>101</v>
       </c>
       <c r="P32" s="6"/>
     </row>
-    <row r="33" spans="2:16" ht="18">
+    <row r="33" spans="2:16" ht="17.5">
       <c r="B33" s="6"/>
       <c r="E33" s="83" t="s">
         <v>102</v>
@@ -3155,23 +3155,23 @@
         <v>103</v>
       </c>
       <c r="G33" s="81">
-        <v>0</v>
+        <v>5.2100000000000002E-3</v>
       </c>
       <c r="H33" s="81">
-        <v>0</v>
+        <v>1.04E-2</v>
       </c>
       <c r="I33" s="81">
-        <v>0</v>
+        <v>5.2100000000000002E-3</v>
       </c>
       <c r="J33" s="81">
-        <v>0</v>
+        <v>1.04E-2</v>
       </c>
       <c r="K33" s="82" t="s">
         <v>104</v>
       </c>
       <c r="P33" s="6"/>
     </row>
-    <row r="34" spans="2:16" ht="18">
+    <row r="34" spans="2:16" ht="17.5">
       <c r="B34" s="6"/>
       <c r="E34" s="83" t="s">
         <v>105</v>
@@ -3180,23 +3180,23 @@
         <v>106</v>
       </c>
       <c r="G34" s="81">
-        <v>0</v>
+        <v>5.2100000000000002E-3</v>
       </c>
       <c r="H34" s="81">
-        <v>0</v>
+        <v>4.1700000000000001E-2</v>
       </c>
       <c r="I34" s="81">
-        <v>0</v>
+        <v>5.2100000000000002E-3</v>
       </c>
       <c r="J34" s="81">
-        <v>0</v>
+        <v>4.1700000000000001E-2</v>
       </c>
       <c r="K34" s="82" t="s">
         <v>104</v>
       </c>
       <c r="P34" s="6"/>
     </row>
-    <row r="35" spans="2:16" ht="18.75" thickBot="1">
+    <row r="35" spans="2:16" ht="18" thickBot="1">
       <c r="B35" s="6"/>
       <c r="E35" s="83" t="s">
         <v>107</v>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="P35" s="6"/>
     </row>
-    <row r="36" spans="2:16" ht="14.45" customHeight="1">
+    <row r="36" spans="2:16" ht="14.5" customHeight="1">
       <c r="B36" s="6"/>
       <c r="D36" s="128" t="s">
         <v>114</v>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="P37" s="6"/>
     </row>
-    <row r="38" spans="2:16" ht="18">
+    <row r="38" spans="2:16" ht="16.5">
       <c r="B38" s="6"/>
       <c r="D38" s="129"/>
       <c r="E38" s="22" t="s">
@@ -3301,7 +3301,7 @@
       </c>
       <c r="P38" s="6"/>
     </row>
-    <row r="39" spans="2:16" ht="18">
+    <row r="39" spans="2:16" ht="16.5">
       <c r="B39" s="6"/>
       <c r="D39" s="129"/>
       <c r="E39" s="22" t="s">
@@ -3327,7 +3327,7 @@
       </c>
       <c r="P39" s="6"/>
     </row>
-    <row r="40" spans="2:16" ht="18">
+    <row r="40" spans="2:16" ht="16.5">
       <c r="B40" s="6"/>
       <c r="D40" s="129"/>
       <c r="E40" s="22" t="s">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="P40" s="6"/>
     </row>
-    <row r="41" spans="2:16" ht="18.75" thickBot="1">
+    <row r="41" spans="2:16" ht="17" thickBot="1">
       <c r="B41" s="6"/>
       <c r="D41" s="130"/>
       <c r="E41" s="25" t="s">
@@ -3379,7 +3379,7 @@
       </c>
       <c r="P41" s="6"/>
     </row>
-    <row r="42" spans="2:16" ht="14.45" customHeight="1" thickBot="1">
+    <row r="42" spans="2:16" ht="14.5" customHeight="1" thickBot="1">
       <c r="B42" s="6"/>
       <c r="D42" s="100"/>
       <c r="E42" s="101" t="s">
@@ -3390,21 +3390,21 @@
       <c r="N42" s="55"/>
       <c r="P42" s="6"/>
     </row>
-    <row r="43" spans="2:16" ht="14.45" customHeight="1">
+    <row r="43" spans="2:16" ht="14.5" customHeight="1">
       <c r="B43" s="6"/>
       <c r="L43" s="55"/>
       <c r="M43" s="55"/>
       <c r="N43" s="55"/>
       <c r="P43" s="6"/>
     </row>
-    <row r="44" spans="2:16" ht="15.75" thickBot="1">
+    <row r="44" spans="2:16" ht="15" thickBot="1">
       <c r="B44" s="6"/>
       <c r="E44" s="20" t="s">
         <v>78</v>
       </c>
       <c r="P44" s="6"/>
     </row>
-    <row r="45" spans="2:16" ht="15.75" thickBot="1">
+    <row r="45" spans="2:16" ht="15" thickBot="1">
       <c r="B45" s="6"/>
       <c r="E45" s="67" t="s">
         <v>3</v>
@@ -3420,7 +3420,7 @@
       </c>
       <c r="P45" s="6"/>
     </row>
-    <row r="46" spans="2:16" ht="16.5">
+    <row r="46" spans="2:16" ht="17">
       <c r="B46" s="6"/>
       <c r="E46" s="56" t="s">
         <v>29</v>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="P46" s="6"/>
     </row>
-    <row r="47" spans="2:16" ht="17.25" thickBot="1">
+    <row r="47" spans="2:16" ht="17.5" thickBot="1">
       <c r="B47" s="6"/>
       <c r="E47" s="36" t="s">
         <v>30</v>
@@ -3456,14 +3456,14 @@
       <c r="B48" s="6"/>
       <c r="P48" s="6"/>
     </row>
-    <row r="49" spans="2:16" ht="15.75" thickBot="1">
+    <row r="49" spans="2:16" ht="15" thickBot="1">
       <c r="B49" s="6"/>
       <c r="E49" s="20" t="s">
         <v>115</v>
       </c>
       <c r="P49" s="6"/>
     </row>
-    <row r="50" spans="2:16" ht="15.75" thickBot="1">
+    <row r="50" spans="2:16" ht="15" thickBot="1">
       <c r="B50" s="6"/>
       <c r="E50" s="32" t="s">
         <v>3</v>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="P51" s="6"/>
     </row>
-    <row r="52" spans="2:16" ht="18">
+    <row r="52" spans="2:16" ht="16.5">
       <c r="B52" s="6"/>
       <c r="D52" s="1" t="s">
         <v>0</v>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="P52" s="6"/>
     </row>
-    <row r="53" spans="2:16" ht="18">
+    <row r="53" spans="2:16" ht="16.5">
       <c r="B53" s="6"/>
       <c r="D53" s="1" t="s">
         <v>0</v>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="P54" s="6"/>
     </row>
-    <row r="55" spans="2:16" ht="18">
+    <row r="55" spans="2:16" ht="16.5">
       <c r="B55" s="6"/>
       <c r="D55" s="1" t="s">
         <v>0</v>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="P55" s="6"/>
     </row>
-    <row r="56" spans="2:16" ht="18">
+    <row r="56" spans="2:16" ht="16.5">
       <c r="B56" s="6"/>
       <c r="D56" s="1" t="s">
         <v>0</v>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="P56" s="6"/>
     </row>
-    <row r="57" spans="2:16" ht="18">
+    <row r="57" spans="2:16" ht="16.5">
       <c r="B57" s="6"/>
       <c r="D57" s="1" t="s">
         <v>0</v>
@@ -3612,7 +3612,7 @@
       </c>
       <c r="P57" s="6"/>
     </row>
-    <row r="58" spans="2:16" ht="18">
+    <row r="58" spans="2:16" ht="16.5">
       <c r="B58" s="6"/>
       <c r="D58" s="1" t="s">
         <v>0</v>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="P58" s="6"/>
     </row>
-    <row r="59" spans="2:16" ht="18.75" thickBot="1">
+    <row r="59" spans="2:16" ht="17" thickBot="1">
       <c r="B59" s="6"/>
       <c r="D59" s="1" t="s">
         <v>0</v>
@@ -3650,14 +3650,14 @@
       </c>
       <c r="P59" s="6"/>
     </row>
-    <row r="60" spans="2:16" ht="14.45" customHeight="1">
+    <row r="60" spans="2:16" ht="14.5" customHeight="1">
       <c r="B60" s="6"/>
       <c r="L60" s="55"/>
       <c r="M60" s="55"/>
       <c r="N60" s="55"/>
       <c r="P60" s="6"/>
     </row>
-    <row r="61" spans="2:16" ht="14.45" customHeight="1">
+    <row r="61" spans="2:16" ht="14.5" customHeight="1">
       <c r="B61" s="6"/>
       <c r="J61" s="127" t="s">
         <v>118</v>
@@ -3719,22 +3719,22 @@
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="6" width="13.140625" customWidth="1"/>
-    <col min="9" max="9" width="4.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" customWidth="1"/>
+    <col min="5" max="6" width="13.1796875" customWidth="1"/>
+    <col min="9" max="9" width="4.81640625" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" customWidth="1"/>
+    <col min="11" max="11" width="34.453125" customWidth="1"/>
     <col min="12" max="16" width="9" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" customWidth="1"/>
-    <col min="18" max="18" width="3.85546875" customWidth="1"/>
+    <col min="17" max="17" width="13.08984375" customWidth="1"/>
+    <col min="18" max="18" width="3.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="15.75" thickBot="1"/>
-    <row r="3" spans="2:20" ht="15.75" thickBot="1">
+    <row r="2" spans="2:20" ht="15" thickBot="1"/>
+    <row r="3" spans="2:20" ht="15" thickBot="1">
       <c r="B3" s="131" t="s">
         <v>65</v>
       </c>
@@ -3756,7 +3756,7 @@
       </c>
       <c r="T3" s="133"/>
     </row>
-    <row r="4" spans="2:20" ht="32.450000000000003" customHeight="1" thickBot="1">
+    <row r="4" spans="2:20" ht="32.5" customHeight="1" thickBot="1">
       <c r="B4" s="42" t="s">
         <v>55</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:20" ht="18.75" thickBot="1">
+    <row r="5" spans="2:20" ht="16.5" thickBot="1">
       <c r="B5" s="46" t="s">
         <v>72</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="6" spans="2:20" ht="18.75" thickBot="1">
+    <row r="6" spans="2:20" ht="17" thickBot="1">
       <c r="B6" s="44" t="s">
         <v>31</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:20" ht="18.75" thickBot="1">
+    <row r="7" spans="2:20" ht="17" thickBot="1">
       <c r="B7" s="46" t="s">
         <v>8</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="15.75" thickBot="1">
+    <row r="8" spans="2:20" ht="15" thickBot="1">
       <c r="B8" s="46" t="s">
         <v>9</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>-3.16</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="18.75" thickBot="1">
+    <row r="9" spans="2:20" ht="17.5" thickBot="1">
       <c r="B9" s="44" t="s">
         <v>58</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="18.75" thickBot="1">
+    <row r="10" spans="2:20" ht="17.5" thickBot="1">
       <c r="B10" s="44" t="s">
         <v>60</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>2.0830000000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="18.75" thickBot="1">
+    <row r="11" spans="2:20" ht="17.5" thickBot="1">
       <c r="B11" s="44" t="s">
         <v>61</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:20" ht="18.75" thickBot="1">
+    <row r="12" spans="2:20" ht="17.5" thickBot="1">
       <c r="B12" s="44" t="s">
         <v>62</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="18.75" thickBot="1">
+    <row r="13" spans="2:20" ht="17.5" thickBot="1">
       <c r="B13" s="44" t="s">
         <v>63</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="17.25" thickBot="1">
+    <row r="14" spans="2:20" ht="17.5" thickBot="1">
       <c r="B14" s="44" t="s">
         <v>64</v>
       </c>

--- a/WI 24/SE 160A/MATLAB PROJECT 2/2024_SE160A_MATLAB_Wing_Student_Project (v2)/Wing_Analysis_Input.xlsx
+++ b/WI 24/SE 160A/MATLAB PROJECT 2/2024_SE160A_MATLAB_Wing_Student_Project (v2)/Wing_Analysis_Input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkosm\Desktop\SE160A_MATLAB_Wing_Analysis (2024)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levih\OneDrive\Documents\GitHub\UCSD\WI 24\SE 160A\MATLAB PROJECT 2\2024_SE160A_MATLAB_Wing_Student_Project (v2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2336E6DC-6A47-4639-9019-6AA35F070211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F060959-76A9-4116-8A12-0B95E470F87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15100" yWindow="-12270" windowWidth="19420" windowHeight="11620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="12340" windowHeight="9970" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -2304,8 +2304,8 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>51513</xdr:rowOff>
     </xdr:to>
@@ -2645,8 +2645,8 @@
   </sheetPr>
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2654,14 +2654,14 @@
     <col min="1" max="1" width="2.1796875" customWidth="1"/>
     <col min="2" max="2" width="2" customWidth="1"/>
     <col min="3" max="3" width="2.1796875" customWidth="1"/>
-    <col min="4" max="4" width="3.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.08984375" customWidth="1"/>
+    <col min="4" max="4" width="3.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" customWidth="1"/>
     <col min="6" max="6" width="34.54296875" customWidth="1"/>
-    <col min="7" max="12" width="12.90625" customWidth="1"/>
+    <col min="7" max="12" width="12.81640625" customWidth="1"/>
     <col min="13" max="13" width="11.81640625" customWidth="1"/>
     <col min="14" max="14" width="13.81640625" customWidth="1"/>
     <col min="15" max="17" width="1.81640625" customWidth="1"/>
-    <col min="19" max="1026" width="8.6328125" customWidth="1"/>
+    <col min="19" max="1026" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.5" customHeight="1"/>
@@ -2851,7 +2851,7 @@
         <v>87</v>
       </c>
       <c r="G16" s="29">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="H16" s="59" t="s">
         <v>18</v>
@@ -2868,7 +2868,7 @@
         <v>88</v>
       </c>
       <c r="G17" s="30">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H17" s="103" t="s">
         <v>18</v>
@@ -2961,7 +2961,7 @@
         <v>110</v>
       </c>
       <c r="G23" s="77">
-        <v>0.04</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="H23" s="90" t="s">
         <v>18</v>
@@ -3105,13 +3105,13 @@
         <v>0</v>
       </c>
       <c r="H31" s="98">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I31" s="78">
         <v>100</v>
       </c>
       <c r="J31" s="99">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="K31" s="79" t="s">
         <v>91</v>
@@ -3130,16 +3130,16 @@
         <v>100</v>
       </c>
       <c r="G32" s="81">
-        <v>0.6</v>
+        <v>5.2</v>
       </c>
       <c r="H32" s="81">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="I32" s="81">
-        <v>1.5</v>
+        <v>5.2</v>
       </c>
       <c r="J32" s="81">
-        <v>3.5</v>
+        <v>5.2</v>
       </c>
       <c r="K32" s="82" t="s">
         <v>101</v>
@@ -3155,16 +3155,16 @@
         <v>103</v>
       </c>
       <c r="G33" s="81">
-        <v>5.2100000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="H33" s="81">
-        <v>1.04E-2</v>
+        <v>0</v>
       </c>
       <c r="I33" s="81">
-        <v>5.2100000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="J33" s="81">
-        <v>1.04E-2</v>
+        <v>0</v>
       </c>
       <c r="K33" s="82" t="s">
         <v>104</v>
@@ -3180,16 +3180,16 @@
         <v>106</v>
       </c>
       <c r="G34" s="81">
-        <v>5.2100000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="H34" s="81">
-        <v>4.1700000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="I34" s="81">
-        <v>5.2100000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="J34" s="81">
-        <v>4.1700000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="K34" s="82" t="s">
         <v>104</v>
@@ -3729,7 +3729,7 @@
     <col min="10" max="10" width="9.1796875" customWidth="1"/>
     <col min="11" max="11" width="34.453125" customWidth="1"/>
     <col min="12" max="16" width="9" customWidth="1"/>
-    <col min="17" max="17" width="13.08984375" customWidth="1"/>
+    <col min="17" max="17" width="13.1796875" customWidth="1"/>
     <col min="18" max="18" width="3.81640625" customWidth="1"/>
   </cols>
   <sheetData>
